--- a/Classes/Junior Year/Spring 2019/Machine Design/Project 1/Deliverable 2/Tables.xlsx
+++ b/Classes/Junior Year/Spring 2019/Machine Design/Project 1/Deliverable 2/Tables.xlsx
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -145,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,11 +155,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,13 +1208,13 @@
         <v>117.313356375292</v>
       </c>
       <c r="C11" s="2">
-        <v>5.0389629584018101</v>
+        <v>5.7</v>
       </c>
       <c r="D11" s="2">
-        <v>210.186019652829</v>
+        <v>274.5</v>
       </c>
       <c r="E11" s="2">
-        <v>7.8208904250194804</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>2.4867146425770401</v>
+        <v>2.84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
